--- a/คู่มือใช้งาน.xlsx
+++ b/คู่มือใช้งาน.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\630039\CRR Validate\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\test code\code python\CRR-validate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BDD43DF-3F47-4ED4-911D-F7C633B2A434}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{749A43B3-8271-4B03-A542-B433A48F039B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="7" xr2:uid="{95243977-DCA6-4FCF-A93C-E0A7C7E470BF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{95243977-DCA6-4FCF-A93C-E0A7C7E470BF}"/>
   </bookViews>
   <sheets>
     <sheet name="Process Overview" sheetId="4" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>ดึงข้อมูลตามปีที่ต้องการ validate CRR โดยจะดู Performance ใน 1 ปีข้างหน้า เช่น validate CRR ปี 2022 ดังนั้นข้อมูล performance ที่จะดึงคือข้อมูลตั้งแต่ 2023-01-31 - 2023-12-31</t>
   </si>
@@ -120,16 +120,19 @@
   <si>
     <t>PSI_TEST</t>
   </si>
+  <si>
+    <t>chaiyaphon poonchai</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Tahoma"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="222"/>
       <scheme val="minor"/>
@@ -137,7 +140,7 @@
     <font>
       <sz val="16"/>
       <color theme="1"/>
-      <name val="Tahoma"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="222"/>
       <scheme val="minor"/>
@@ -146,14 +149,14 @@
       <b/>
       <sz val="16"/>
       <color rgb="FFFF0000"/>
-      <name val="Tahoma"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Tahoma"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="222"/>
       <scheme val="minor"/>
@@ -162,7 +165,7 @@
       <b/>
       <sz val="14"/>
       <color theme="0"/>
-      <name val="Tahoma"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -170,7 +173,7 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="Tahoma"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="222"/>
       <scheme val="minor"/>
@@ -180,20 +183,20 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="Tahoma"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Tahoma"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <name val="Tahoma"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="222"/>
       <scheme val="minor"/>
@@ -15932,33 +15935,36 @@
   <dimension ref="B13:G27"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="11" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F31" sqref="F31"/>
+      <pane ySplit="11" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q13" sqref="Q13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="20.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="43.75" customWidth="1"/>
-    <col min="4" max="4" width="22.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.28515625" customWidth="1"/>
+    <col min="3" max="3" width="43.7109375" customWidth="1"/>
+    <col min="4" max="4" width="22.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.42578125" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="13" spans="2:7" ht="142.5" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:7" ht="150">
       <c r="B13" s="9" t="s">
         <v>19</v>
       </c>
       <c r="C13" s="10" t="s">
         <v>20</v>
       </c>
+      <c r="F13" t="s">
+        <v>28</v>
+      </c>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:7">
       <c r="B15" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="2:7" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:7" ht="21">
       <c r="B16" s="4" t="s">
         <v>22</v>
       </c>
@@ -15967,7 +15973,7 @@
       </c>
       <c r="G16" s="1"/>
     </row>
-    <row r="17" spans="2:7" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:7" ht="21">
       <c r="B17" s="4" t="s">
         <v>24</v>
       </c>
@@ -15976,13 +15982,13 @@
       </c>
       <c r="G17" s="1"/>
     </row>
-    <row r="18" spans="2:7" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:7" ht="21">
       <c r="G18" s="1"/>
     </row>
-    <row r="19" spans="2:7" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:7" ht="21">
       <c r="G19" s="1"/>
     </row>
-    <row r="20" spans="2:7" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:7" ht="21">
       <c r="B20" s="5" t="s">
         <v>16</v>
       </c>
@@ -15994,7 +16000,7 @@
       </c>
       <c r="G20" s="1"/>
     </row>
-    <row r="21" spans="2:7" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:7" ht="21">
       <c r="B21" s="3" t="s">
         <v>8</v>
       </c>
@@ -16008,7 +16014,7 @@
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
     </row>
-    <row r="22" spans="2:7" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:7" ht="21">
       <c r="B22" s="3" t="s">
         <v>1</v>
       </c>
@@ -16022,7 +16028,7 @@
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
     </row>
-    <row r="23" spans="2:7" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:7" ht="21">
       <c r="B23" s="3"/>
       <c r="C23" s="7" t="s">
         <v>3</v>
@@ -16031,7 +16037,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="2:7" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:7" ht="21">
       <c r="B24" s="3"/>
       <c r="C24" s="7" t="s">
         <v>4</v>
@@ -16040,7 +16046,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="2:7" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:7" ht="21">
       <c r="B25" s="3" t="s">
         <v>13</v>
       </c>
@@ -16051,7 +16057,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="2:7" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:7" ht="21">
       <c r="B26" s="3"/>
       <c r="C26" s="7" t="s">
         <v>12</v>
@@ -16060,7 +16066,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="27" spans="2:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:7" ht="24" customHeight="1">
       <c r="B27" s="4"/>
       <c r="C27" s="7" t="s">
         <v>26</v>
@@ -16070,6 +16076,7 @@
       </c>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <hyperlinks>
     <hyperlink ref="C21" location="preprocess!A1" display="preprocess" xr:uid="{7CA70198-FBC7-42F8-8942-923F5CF1A27E}"/>
     <hyperlink ref="C22" location="'process 1'!A1" display="process 1" xr:uid="{0B375E8A-4644-48AF-AEEE-03A1E553D96B}"/>
@@ -16091,20 +16098,20 @@
     <sheetView showGridLines="0" topLeftCell="A2" workbookViewId="0">
       <pane ySplit="7" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
-      <selection pane="bottomLeft" activeCell="K11" sqref="K11"/>
+      <selection pane="bottomLeft" activeCell="U2" sqref="U1:U1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="15" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="16" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="17" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="18" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="19" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="20" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="21" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="22" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="23" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="15" customFormat="1"/>
+    <row r="16" customFormat="1"/>
+    <row r="17" customFormat="1"/>
+    <row r="18" customFormat="1"/>
+    <row r="19" customFormat="1"/>
+    <row r="20" customFormat="1"/>
+    <row r="21" customFormat="1"/>
+    <row r="22" customFormat="1"/>
+    <row r="23" customFormat="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -16116,13 +16123,13 @@
   <dimension ref="C10"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="7" topLeftCell="A304" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="V29" sqref="V29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="10" spans="3:3" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="3:3" ht="21">
       <c r="C10" s="2" t="s">
         <v>0</v>
       </c>
@@ -16137,20 +16144,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FCA5226-7C97-4794-A612-A29910CABB50}">
   <dimension ref="A7:A13"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="X85" sqref="X85"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="8" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="9" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="10" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="11" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="12" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="13" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="7" hidden="1"/>
+    <row r="8" hidden="1"/>
+    <row r="9" hidden="1"/>
+    <row r="10" hidden="1"/>
+    <row r="11" hidden="1"/>
+    <row r="12" hidden="1"/>
+    <row r="13" hidden="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -16162,11 +16169,11 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A52" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="6" topLeftCell="A51" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="R19" sqref="R19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -16178,13 +16185,13 @@
   <dimension ref="K69"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A70" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="6" topLeftCell="A108" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="69" spans="11:11" x14ac:dyDescent="0.2">
+    <row r="69" spans="11:11">
       <c r="K69" s="8"/>
     </row>
   </sheetData>
@@ -16198,22 +16205,22 @@
   <dimension ref="A15:A23"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A2" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A66" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="7" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="15" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="16" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="17" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="18" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="19" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="20" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="21" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="22" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="23" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="15" customFormat="1"/>
+    <row r="16" customFormat="1"/>
+    <row r="17" customFormat="1"/>
+    <row r="18" customFormat="1"/>
+    <row r="19" customFormat="1"/>
+    <row r="20" customFormat="1"/>
+    <row r="21" customFormat="1"/>
+    <row r="22" customFormat="1"/>
+    <row r="23" customFormat="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -16224,23 +16231,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D89E3F6-BD64-42E4-9604-D4C1FD7B29F8}">
   <dimension ref="A15:A23"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+    <sheetView showGridLines="0" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="7" topLeftCell="A148" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
       <selection pane="bottomLeft" activeCell="S26" activeCellId="1" sqref="A1 S26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="15" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="16" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="17" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="18" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="19" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="20" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="21" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="22" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="23" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="15" customFormat="1"/>
+    <row r="16" customFormat="1"/>
+    <row r="17" customFormat="1"/>
+    <row r="18" customFormat="1"/>
+    <row r="19" customFormat="1"/>
+    <row r="20" customFormat="1"/>
+    <row r="21" customFormat="1"/>
+    <row r="22" customFormat="1"/>
+    <row r="23" customFormat="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/คู่มือใช้งาน.xlsx
+++ b/คู่มือใช้งาน.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\test code\code python\CRR-validate\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\COMMON\Model\CRR\CRR Validate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{749A43B3-8271-4B03-A542-B433A48F039B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ECA43C2-436E-4C66-806F-4BAE2044CBC0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{95243977-DCA6-4FCF-A93C-E0A7C7E470BF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{95243977-DCA6-4FCF-A93C-E0A7C7E470BF}"/>
   </bookViews>
   <sheets>
     <sheet name="Process Overview" sheetId="4" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>ดึงข้อมูลตามปีที่ต้องการ validate CRR โดยจะดู Performance ใน 1 ปีข้างหน้า เช่น validate CRR ปี 2022 ดังนั้นข้อมูล performance ที่จะดึงคือข้อมูลตั้งแต่ 2023-01-31 - 2023-12-31</t>
   </si>
@@ -123,16 +123,22 @@
   <si>
     <t>chaiyaphon poonchai</t>
   </si>
+  <si>
+    <t>location</t>
+  </si>
+  <si>
+    <t>T:\COMMON\Model\CRR\CRR Validate</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Tahoma"/>
       <family val="2"/>
       <charset val="222"/>
       <scheme val="minor"/>
@@ -140,7 +146,7 @@
     <font>
       <sz val="16"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Tahoma"/>
       <family val="2"/>
       <charset val="222"/>
       <scheme val="minor"/>
@@ -149,14 +155,14 @@
       <b/>
       <sz val="16"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="Tahoma"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="Tahoma"/>
       <family val="2"/>
       <charset val="222"/>
       <scheme val="minor"/>
@@ -165,7 +171,7 @@
       <b/>
       <sz val="14"/>
       <color theme="0"/>
-      <name val="Calibri"/>
+      <name val="Tahoma"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -173,7 +179,7 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="Calibri"/>
+      <name val="Tahoma"/>
       <family val="2"/>
       <charset val="222"/>
       <scheme val="minor"/>
@@ -183,22 +189,30 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="Calibri"/>
+      <name val="Tahoma"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <name val="Tahoma"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <name val="Calibri"/>
+      <name val="Tahoma"/>
       <family val="2"/>
       <charset val="222"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="0"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -216,7 +230,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -239,12 +253,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -262,6 +289,8 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -374,8 +403,8 @@
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>458366</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>10691</xdr:colOff>
       <xdr:row>42</xdr:row>
       <xdr:rowOff>115011</xdr:rowOff>
     </xdr:to>
@@ -424,8 +453,8 @@
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>466725</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
       <xdr:row>68</xdr:row>
       <xdr:rowOff>95874</xdr:rowOff>
     </xdr:to>
@@ -474,8 +503,8 @@
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>87229</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>325354</xdr:colOff>
       <xdr:row>102</xdr:row>
       <xdr:rowOff>48439</xdr:rowOff>
     </xdr:to>
@@ -15935,20 +15964,20 @@
   <dimension ref="B13:G27"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="11" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q13" sqref="Q13"/>
+      <pane ySplit="11" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="31.28515625" customWidth="1"/>
-    <col min="3" max="3" width="43.7109375" customWidth="1"/>
-    <col min="4" max="4" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.25" customWidth="1"/>
+    <col min="3" max="3" width="43.75" customWidth="1"/>
+    <col min="4" max="4" width="22.375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.42578125" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="22.375" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="13" spans="2:7" ht="150">
+    <row r="13" spans="2:7" ht="142.5" x14ac:dyDescent="0.2">
       <c r="B13" s="9" t="s">
         <v>19</v>
       </c>
@@ -15959,12 +15988,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="2:7">
+    <row r="15" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B15" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="2:7" ht="21">
+    <row r="16" spans="2:7" ht="19.5" x14ac:dyDescent="0.25">
       <c r="B16" s="4" t="s">
         <v>22</v>
       </c>
@@ -15973,7 +16002,7 @@
       </c>
       <c r="G16" s="1"/>
     </row>
-    <row r="17" spans="2:7" ht="21">
+    <row r="17" spans="2:7" ht="19.5" x14ac:dyDescent="0.25">
       <c r="B17" s="4" t="s">
         <v>24</v>
       </c>
@@ -15982,13 +16011,13 @@
       </c>
       <c r="G17" s="1"/>
     </row>
-    <row r="18" spans="2:7" ht="21">
+    <row r="18" spans="2:7" ht="19.5" x14ac:dyDescent="0.25">
       <c r="G18" s="1"/>
     </row>
-    <row r="19" spans="2:7" ht="21">
+    <row r="19" spans="2:7" ht="19.5" x14ac:dyDescent="0.25">
       <c r="G19" s="1"/>
     </row>
-    <row r="20" spans="2:7" ht="21">
+    <row r="20" spans="2:7" ht="19.5" x14ac:dyDescent="0.25">
       <c r="B20" s="5" t="s">
         <v>16</v>
       </c>
@@ -16000,7 +16029,7 @@
       </c>
       <c r="G20" s="1"/>
     </row>
-    <row r="21" spans="2:7" ht="21">
+    <row r="21" spans="2:7" ht="19.5" x14ac:dyDescent="0.25">
       <c r="B21" s="3" t="s">
         <v>8</v>
       </c>
@@ -16014,7 +16043,7 @@
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
     </row>
-    <row r="22" spans="2:7" ht="21">
+    <row r="22" spans="2:7" ht="19.5" x14ac:dyDescent="0.25">
       <c r="B22" s="3" t="s">
         <v>1</v>
       </c>
@@ -16028,7 +16057,7 @@
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
     </row>
-    <row r="23" spans="2:7" ht="21">
+    <row r="23" spans="2:7" ht="19.5" x14ac:dyDescent="0.25">
       <c r="B23" s="3"/>
       <c r="C23" s="7" t="s">
         <v>3</v>
@@ -16037,7 +16066,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="2:7" ht="21">
+    <row r="24" spans="2:7" ht="19.5" x14ac:dyDescent="0.25">
       <c r="B24" s="3"/>
       <c r="C24" s="7" t="s">
         <v>4</v>
@@ -16046,7 +16075,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="2:7" ht="21">
+    <row r="25" spans="2:7" ht="19.5" x14ac:dyDescent="0.25">
       <c r="B25" s="3" t="s">
         <v>13</v>
       </c>
@@ -16057,7 +16086,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="2:7" ht="21">
+    <row r="26" spans="2:7" ht="19.5" x14ac:dyDescent="0.25">
       <c r="B26" s="3"/>
       <c r="C26" s="7" t="s">
         <v>12</v>
@@ -16066,7 +16095,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="27" spans="2:7" ht="24" customHeight="1">
+    <row r="27" spans="2:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="4"/>
       <c r="C27" s="7" t="s">
         <v>26</v>
@@ -16093,25 +16122,36 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD6879F7-F652-4F7B-802A-6943A3FEFE53}">
-  <dimension ref="A15:A23"/>
+  <dimension ref="F6:F23"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A2" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" workbookViewId="0">
       <pane ySplit="7" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
-      <selection pane="bottomLeft" activeCell="U2" sqref="U1:U1048576"/>
+      <selection pane="bottomLeft" activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="6" max="6" width="32.875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="15" customFormat="1"/>
-    <row r="16" customFormat="1"/>
-    <row r="17" customFormat="1"/>
-    <row r="18" customFormat="1"/>
-    <row r="19" customFormat="1"/>
-    <row r="20" customFormat="1"/>
-    <row r="21" customFormat="1"/>
-    <row r="22" customFormat="1"/>
-    <row r="23" customFormat="1"/>
+    <row r="6" spans="6:6" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="F6" s="11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F7" s="12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="18" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="19" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="20" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="21" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="22" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="23" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -16127,9 +16167,9 @@
       <selection pane="bottomLeft" activeCell="V29" sqref="V29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="10" spans="3:3" ht="21">
+    <row r="10" spans="3:3" ht="19.5" x14ac:dyDescent="0.25">
       <c r="C10" s="2" t="s">
         <v>0</v>
       </c>
@@ -16144,20 +16184,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FCA5226-7C97-4794-A612-A29910CABB50}">
   <dimension ref="A7:A13"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="X85" sqref="X85"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="7" hidden="1"/>
-    <row r="8" hidden="1"/>
-    <row r="9" hidden="1"/>
-    <row r="10" hidden="1"/>
-    <row r="11" hidden="1"/>
-    <row r="12" hidden="1"/>
-    <row r="13" hidden="1"/>
+    <row r="7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="8" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="9" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="10" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="11" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="12" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="13" hidden="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -16173,7 +16213,7 @@
       <selection pane="bottomLeft" activeCell="R19" sqref="R19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -16189,9 +16229,9 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="69" spans="11:11">
+    <row r="69" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K69" s="8"/>
     </row>
   </sheetData>
@@ -16210,17 +16250,17 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="15" customFormat="1"/>
-    <row r="16" customFormat="1"/>
-    <row r="17" customFormat="1"/>
-    <row r="18" customFormat="1"/>
-    <row r="19" customFormat="1"/>
-    <row r="20" customFormat="1"/>
-    <row r="21" customFormat="1"/>
-    <row r="22" customFormat="1"/>
-    <row r="23" customFormat="1"/>
+    <row r="15" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="16" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="17" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="18" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="19" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="20" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="21" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="22" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="23" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -16237,17 +16277,17 @@
       <selection pane="bottomLeft" activeCell="S26" activeCellId="1" sqref="A1 S26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="15" customFormat="1"/>
-    <row r="16" customFormat="1"/>
-    <row r="17" customFormat="1"/>
-    <row r="18" customFormat="1"/>
-    <row r="19" customFormat="1"/>
-    <row r="20" customFormat="1"/>
-    <row r="21" customFormat="1"/>
-    <row r="22" customFormat="1"/>
-    <row r="23" customFormat="1"/>
+    <row r="15" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="16" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="17" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="18" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="19" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="20" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="21" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="22" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="23" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
